--- a/TFT_Tartu/Task/conditions_quest.xlsx
+++ b/TFT_Tartu/Task/conditions_quest.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3549E913-5EA1-4662-A75E-1784CC1DAF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915588ED-BC9D-4B9D-9891-6B49E785081B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>frex</t>
   </si>
@@ -40,28 +40,25 @@
     <t>high</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>startVal</t>
   </si>
   <si>
     <t>label</t>
   </si>
   <si>
+    <t>high50</t>
+  </si>
+  <si>
+    <t>low50</t>
+  </si>
+  <si>
     <t>pThreshold</t>
   </si>
   <si>
     <t>startValSd</t>
-  </si>
-  <si>
-    <t>low_low</t>
-  </si>
-  <si>
-    <t>high_high</t>
-  </si>
-  <si>
-    <t>low_high</t>
-  </si>
-  <si>
-    <t>high_low</t>
   </si>
 </sst>
 </file>
@@ -382,24 +379,23 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -408,7 +404,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -428,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -448,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -462,13 +458,13 @@
         <v>0.7</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -482,13 +478,13 @@
         <v>0.7</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/TFT_Tartu/Task/conditions_quest.xlsx
+++ b/TFT_Tartu/Task/conditions_quest.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915588ED-BC9D-4B9D-9891-6B49E785081B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFBBEE1-56EF-4558-9CAE-35F02E275EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,6 @@
     <t>low</t>
   </si>
   <si>
-    <t>slow</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
@@ -59,6 +53,12 @@
   </si>
   <si>
     <t>startValSd</t>
+  </si>
+  <si>
+    <t>aeglane</t>
+  </si>
+  <si>
+    <t>kiire</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,13 +389,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -404,7 +404,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -418,7 +418,7 @@
         <v>0.7</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -438,13 +438,13 @@
         <v>0.7</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -458,13 +458,13 @@
         <v>0.7</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -478,13 +478,13 @@
         <v>0.7</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/TFT_Tartu/Task/conditions_quest.xlsx
+++ b/TFT_Tartu/Task/conditions_quest.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFBBEE1-56EF-4558-9CAE-35F02E275EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,11 +374,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
